--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="128">
+  <si>
+    <t>Data-base</t>
+  </si>
   <si>
     <t>valor do provento</t>
   </si>
@@ -25,13 +28,376 @@
     <t>período de referência</t>
   </si>
   <si>
+    <t>31/03/2025</t>
+  </si>
+  <si>
+    <t>28/02/2025</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>30/12/2024</t>
+  </si>
+  <si>
+    <t>29/11/2024</t>
+  </si>
+  <si>
+    <t>31/10/2024</t>
+  </si>
+  <si>
+    <t>30/09/2024</t>
+  </si>
+  <si>
+    <t>30/08/2024</t>
+  </si>
+  <si>
+    <t>31/07/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>30/04/2024</t>
+  </si>
+  <si>
+    <t>28/03/2024</t>
+  </si>
+  <si>
+    <t>29/02/2024</t>
+  </si>
+  <si>
+    <t>31/01/2024</t>
+  </si>
+  <si>
+    <t>28/12/2023</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>29/09/2023</t>
+  </si>
+  <si>
+    <t>31/08/2023</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>31/07/2023</t>
+  </si>
+  <si>
+    <t>30/06/2023</t>
+  </si>
+  <si>
+    <t>31/05/2023</t>
+  </si>
+  <si>
+    <t>28/04/2023</t>
+  </si>
+  <si>
+    <t>31/03/2023</t>
+  </si>
+  <si>
+    <t>28/02/2023</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
+    <t>29/12/2022</t>
+  </si>
+  <si>
+    <t>30/11/2022</t>
+  </si>
+  <si>
+    <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>30/09/2022</t>
+  </si>
+  <si>
+    <t>31/08/2022</t>
+  </si>
+  <si>
+    <t>29/07/2022</t>
+  </si>
+  <si>
+    <t>30/06/2022</t>
+  </si>
+  <si>
+    <t>31/05/2022</t>
+  </si>
+  <si>
+    <t>29/04/2022</t>
+  </si>
+  <si>
+    <t>31/03/2022</t>
+  </si>
+  <si>
     <t>0,085</t>
   </si>
   <si>
+    <t>0,07</t>
+  </si>
+  <si>
+    <t>0,06</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>0,105</t>
+  </si>
+  <si>
+    <t>0,092</t>
+  </si>
+  <si>
+    <t>0,11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0,123</t>
+  </si>
+  <si>
+    <t>0,103</t>
+  </si>
+  <si>
+    <t>0,12</t>
+  </si>
+  <si>
+    <t>0,09</t>
+  </si>
+  <si>
+    <t>0,13</t>
+  </si>
+  <si>
+    <t>0,14</t>
+  </si>
+  <si>
+    <t>0,08</t>
+  </si>
+  <si>
     <t>07/04/2025</t>
   </si>
   <si>
+    <t>11/03/2025</t>
+  </si>
+  <si>
+    <t>07/02/2025</t>
+  </si>
+  <si>
+    <t>08/01/2025</t>
+  </si>
+  <si>
+    <t>06/12/2024</t>
+  </si>
+  <si>
+    <t>07/11/2024</t>
+  </si>
+  <si>
+    <t>07/10/2024</t>
+  </si>
+  <si>
+    <t>06/09/2024</t>
+  </si>
+  <si>
+    <t>07/08/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>08/05/2024</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>07/03/2024</t>
+  </si>
+  <si>
+    <t>07/02/2024</t>
+  </si>
+  <si>
+    <t>08/01/2024</t>
+  </si>
+  <si>
+    <t>08/11/2023</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>08/09/2023</t>
+  </si>
+  <si>
+    <t>07/08/2023</t>
+  </si>
+  <si>
+    <t>07/07/2023</t>
+  </si>
+  <si>
+    <t>07/06/2023</t>
+  </si>
+  <si>
+    <t>08/05/2023</t>
+  </si>
+  <si>
+    <t>10/04/2023</t>
+  </si>
+  <si>
+    <t>07/03/2023</t>
+  </si>
+  <si>
+    <t>07/02/2023</t>
+  </si>
+  <si>
+    <t>06/01/2023</t>
+  </si>
+  <si>
+    <t>07/12/2022</t>
+  </si>
+  <si>
+    <t>08/11/2022</t>
+  </si>
+  <si>
+    <t>07/10/2022</t>
+  </si>
+  <si>
+    <t>08/09/2022</t>
+  </si>
+  <si>
+    <t>05/08/2022</t>
+  </si>
+  <si>
+    <t>07/07/2022</t>
+  </si>
+  <si>
+    <t>07/06/2022</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>07/04/2022</t>
+  </si>
+  <si>
     <t>MARÇO 2025</t>
+  </si>
+  <si>
+    <t>FEVEREIRO 2025</t>
+  </si>
+  <si>
+    <t>JANEIRO 2025</t>
+  </si>
+  <si>
+    <t>DEZEMBRO 2024</t>
+  </si>
+  <si>
+    <t>NOVEMBRO 2024</t>
+  </si>
+  <si>
+    <t>OUTUBRO 2024</t>
+  </si>
+  <si>
+    <t>SETEMBRO 2024</t>
+  </si>
+  <si>
+    <t>AGOSTO 2024</t>
+  </si>
+  <si>
+    <t>JULHO 2024</t>
+  </si>
+  <si>
+    <t>JUNHO 2024</t>
+  </si>
+  <si>
+    <t>MAIO 2024</t>
+  </si>
+  <si>
+    <t>ABRIL 2024</t>
+  </si>
+  <si>
+    <t>MARÇO 2024</t>
+  </si>
+  <si>
+    <t>FEVEREIRO 2024</t>
+  </si>
+  <si>
+    <t>JANEIRO 2024</t>
+  </si>
+  <si>
+    <t>Dezembro 2023</t>
+  </si>
+  <si>
+    <t>Outubro 2023</t>
+  </si>
+  <si>
+    <t>SETEMBRO 2023</t>
+  </si>
+  <si>
+    <t>AGOSTO 2023</t>
+  </si>
+  <si>
+    <t>JULHO 2023</t>
+  </si>
+  <si>
+    <t>JUNHO 2023</t>
+  </si>
+  <si>
+    <t>MAIO 2023</t>
+  </si>
+  <si>
+    <t>Abril 2023</t>
+  </si>
+  <si>
+    <t>Março 2023</t>
+  </si>
+  <si>
+    <t>Fevereiro 2023</t>
+  </si>
+  <si>
+    <t>Janeiro 2023</t>
+  </si>
+  <si>
+    <t>Dezembro 2022</t>
+  </si>
+  <si>
+    <t>NOVEMBRO 2022</t>
+  </si>
+  <si>
+    <t>outubro 2022</t>
+  </si>
+  <si>
+    <t>setembro 2022</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>JULHO</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>MAIO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>MARÇO</t>
   </si>
 </sst>
 </file>
@@ -389,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,16 +771,806 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
   <si>
     <t>Data-base</t>
   </si>
@@ -28,6 +28,9 @@
     <t>período de referência</t>
   </si>
   <si>
+    <t>30/04/2025</t>
+  </si>
+  <si>
     <t>31/03/2025</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>28/12/2023</t>
   </si>
   <si>
+    <t>30/11/2023</t>
+  </si>
+  <si>
     <t>31/10/2023</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>31/03/2022</t>
   </si>
   <si>
+    <t>0,1</t>
+  </si>
+  <si>
     <t>0,085</t>
   </si>
   <si>
@@ -148,9 +157,6 @@
     <t>0,06</t>
   </si>
   <si>
-    <t>0,1</t>
-  </si>
-  <si>
     <t>0,105</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t>0,08</t>
   </si>
   <si>
+    <t>08/05/2025</t>
+  </si>
+  <si>
     <t>07/04/2025</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
     <t>08/01/2024</t>
   </si>
   <si>
+    <t>07/12/2023</t>
+  </si>
+  <si>
     <t>08/11/2023</t>
   </si>
   <si>
@@ -292,6 +304,9 @@
     <t>07/04/2022</t>
   </si>
   <si>
+    <t>ABRIL 2025</t>
+  </si>
+  <si>
     <t>MARÇO 2025</t>
   </si>
   <si>
@@ -338,6 +353,9 @@
   </si>
   <si>
     <t>Dezembro 2023</t>
+  </si>
+  <si>
+    <t>Novembro 2023</t>
   </si>
   <si>
     <t>Outubro 2023</t>
@@ -755,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -780,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -794,13 +812,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -808,13 +826,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -822,13 +840,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -836,13 +854,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -850,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -864,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -878,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -892,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -906,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -920,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -934,13 +952,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -948,13 +966,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -962,13 +980,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -976,13 +994,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -990,13 +1008,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1004,13 +1022,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1018,13 +1036,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1032,13 +1050,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1046,13 +1064,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1060,27 +1078,27 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1088,13 +1106,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1102,13 +1120,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1116,13 +1134,13 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1130,13 +1148,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1144,13 +1162,13 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1158,13 +1176,13 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1172,13 +1190,13 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1186,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1200,13 +1218,13 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1217,10 +1235,10 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1231,10 +1249,10 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1242,13 +1260,13 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1256,13 +1274,13 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1270,13 +1288,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1284,13 +1302,13 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1298,13 +1316,13 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1312,13 +1330,13 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1326,13 +1344,13 @@
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1340,13 +1358,13 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1354,13 +1372,13 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1368,13 +1386,13 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1382,13 +1400,13 @@
         <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1396,13 +1414,13 @@
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1410,13 +1428,13 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1427,10 +1445,10 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1438,139 +1456,181 @@
         <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>40</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>42</v>
       </c>
-      <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" t="s">
-        <v>127</v>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
